--- a/需求文档/周目工作计划/QQ好友QQ群工作情况--刘振才20160408 - 副本.xlsx
+++ b/需求文档/周目工作计划/QQ好友QQ群工作情况--刘振才20160408 - 副本.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>QQ号码完成情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>徐栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨福坤-中南众创/节能楼控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微笑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +438,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -506,10 +514,16 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
